--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt1-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt1-Fzd10.xlsx
@@ -534,28 +534,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H2">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I2">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J2">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.1038565</v>
+        <v>0.016657</v>
       </c>
       <c r="N2">
-        <v>0.207713</v>
+        <v>0.033314</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.002024128566166667</v>
+        <v>0.000451787811</v>
       </c>
       <c r="R2">
-        <v>0.012144771397</v>
+        <v>0.002710726866</v>
       </c>
       <c r="S2">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="T2">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I3">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J3">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.1038565</v>
+        <v>0.016657</v>
       </c>
       <c r="N3">
-        <v>0.207713</v>
+        <v>0.033314</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.0265005438225</v>
+        <v>0.004250283405</v>
       </c>
       <c r="R3">
-        <v>0.159003262935</v>
+        <v>0.02550170043</v>
       </c>
       <c r="S3">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="T3">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
     </row>
   </sheetData>
